--- a/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
+++ b/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Options" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GPIO!$A$1:$O$56</definedName>
     <definedName name="AltFn">Options!$K$2:$K$10</definedName>
     <definedName name="Mode">Options!$A$2:$A$5</definedName>
     <definedName name="OutputInit">Options!$I$2:$I$4</definedName>
@@ -18,12 +19,19 @@
     <definedName name="OutputType">Options!$C$2:$C$4</definedName>
     <definedName name="Pull">Options!$G$2:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="124">
   <si>
     <t>Mode</t>
   </si>
@@ -64,9 +72,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>PX_GPIO_MODE_AF</t>
   </si>
   <si>
@@ -160,9 +165,6 @@
     <t>PX_GPIO_ADC1</t>
   </si>
   <si>
-    <t>PX_GPIO__ADC0</t>
-  </si>
-  <si>
     <t>PX_GPIO_USB_DET</t>
   </si>
   <si>
@@ -208,21 +210,12 @@
     <t>PX_GPIO_SPI1_MOSI</t>
   </si>
   <si>
-    <t>PX_GPIO_CS</t>
-  </si>
-  <si>
-    <t>PX_GPIO_SD_CD</t>
-  </si>
-  <si>
     <t>PX_GPIO_I2C1_SCL</t>
   </si>
   <si>
     <t>PX_GPIO_I2C1_SDA</t>
   </si>
   <si>
-    <t>PX_GPIO_LCD_RST</t>
-  </si>
-  <si>
     <t>PX_GPIO_LCD_RS</t>
   </si>
   <si>
@@ -302,6 +295,114 @@
   </si>
   <si>
     <t>PX_GPIO_LCD_BTN_3_UP</t>
+  </si>
+  <si>
+    <t>PX_GPIO_ADC0</t>
+  </si>
+  <si>
+    <t>PX_GPIO_SPI1_CS</t>
+  </si>
+  <si>
+    <t>PX_GPIO_7_SD_CD</t>
+  </si>
+  <si>
+    <t>PX_GPIO_LCD_BACKLIGHT</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Global variables</t>
+  </si>
+  <si>
+    <t>#define GPIOA_PUPDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_PUPDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_PUPDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_PUPDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_PUPDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOA_OTYPER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_OTYPER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_OTYPER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_OTYPER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_OTYPER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOA_OSPEEDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_OSPEEDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_OSPEEDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_OSPEEDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_OSPEEDR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOA_ODR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_ODR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_ODR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_ODR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_ODR_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOA_AFRL_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_AFRL_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_AFRL_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_AFRL_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_AFRL_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOA_MODER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOB_MODER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOC_MODER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOD_MODER_VAL \</t>
+  </si>
+  <si>
+    <t>#define GPIOH_MODER_VAL \</t>
   </si>
 </sst>
 </file>
@@ -357,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -421,11 +522,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -448,15 +573,412 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FF808080"/>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
       <color rgb="FF101010"/>
       <color rgb="FFC0A820"/>
       <color rgb="FFC0A020"/>
@@ -763,7 +1285,7 @@
   <sheetPr>
     <tabColor rgb="FFC0A020"/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -785,11 +1307,25 @@
     <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
     <col min="15" max="15" width="2.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="3.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="153.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="17" max="17" width="129.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="3"/>
+    <col min="23" max="23" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="3"/>
+    <col min="25" max="25" width="46.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="3"/>
+    <col min="27" max="27" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="3"/>
+    <col min="29" max="29" width="41.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="3"/>
+    <col min="31" max="31" width="41.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -825,12 +1361,33 @@
       <c r="O1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -846,35 +1403,35 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7">
         <f>VLOOKUP(F2,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7">
         <f>VLOOKUP(H2,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="7">
         <f>VLOOKUP(J2,Options!G$2:H$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="7">
         <f>VLOOKUP(L2,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" s="7">
         <f>VLOOKUP(N2,Options!K$2:L$100,2,FALSE)</f>
@@ -882,13 +1439,41 @@
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="3" t="str">
-        <f t="shared" ref="Q2:Q17" si="0">CONCATENATE("#define ",A2," GPIO(",B2,", ",C2,", ",D2,", ",F2,", ",H2,", ",J2,", ",L2,", ",N2,")")</f>
-        <v>#define PX_GPIO_3 GPIO(A, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <f>CONCATENATE("#define ",$A2," PX_GPIO(",$B2,", ",$C2,", ",$D2,", ",$F2,", ",$H2,", ",$J2,", ",$L2,", ",$N2,")")</f>
+        <v>#define PX_GPIO_3 PX_GPIO(A, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S2" s="3" t="str">
+        <f>CONCATENATE("static const px_gpio_handle_t ",LOWER($A2)," = {",$A2,"};")</f>
+        <v>static const px_gpio_handle_t px_gpio_3 = {PX_GPIO_3};</v>
+      </c>
+      <c r="U2" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_3) \</v>
+      </c>
+      <c r="W2" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_3) \</v>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_3) \</v>
+      </c>
+      <c r="AA2" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_3) \</v>
+      </c>
+      <c r="AC2" s="3" t="str">
+        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_3) \</v>
+      </c>
+      <c r="AE2" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A2,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_3) \</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -897,42 +1482,42 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3" s="7">
         <f>VLOOKUP(D3,Options!A$2:B$100,2,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="7">
         <f>VLOOKUP(F3,Options!C$2:D$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="7">
         <f>VLOOKUP(H3,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="7">
         <f>VLOOKUP(J3,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="7">
         <f>VLOOKUP(L3,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" s="7">
         <f>VLOOKUP(N3,Options!K$2:L$100,2,FALSE)</f>
@@ -940,13 +1525,41 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>#define PX_GPIO_ADC3 GPIO(A, 1, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q3:Q56" si="0">CONCATENATE("#define ",$A3," PX_GPIO(",$B3,", ",$C3,", ",$D3,", ",$F3,", ",$H3,", ",$J3,", ",$L3,", ",$N3,")")</f>
+        <v>#define PX_GPIO_2 PX_GPIO(A, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S3" s="3" t="str">
+        <f t="shared" ref="S3:S56" si="1">CONCATENATE("static const px_gpio_handle_t ",LOWER($A3)," = {",$A3,"};")</f>
+        <v>static const px_gpio_handle_t px_gpio_2 = {PX_GPIO_2};</v>
+      </c>
+      <c r="U3" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_2) \</v>
+      </c>
+      <c r="W3" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_2) \</v>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_2) \</v>
+      </c>
+      <c r="AA3" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_2) \</v>
+      </c>
+      <c r="AC3" s="3" t="str">
+        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_2) \</v>
+      </c>
+      <c r="AE3" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A3,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_2) \</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -955,42 +1568,42 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7">
         <f>VLOOKUP(D4,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7">
         <f>VLOOKUP(F4,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
         <f>VLOOKUP(H4,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7">
         <f>VLOOKUP(J4,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7">
         <f>VLOOKUP(L4,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O4" s="7">
         <f>VLOOKUP(N4,Options!K$2:L$100,2,FALSE)</f>
@@ -999,12 +1612,40 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART2_TX GPIO(A, 2, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_UART2_TX PX_GPIO(A, 2, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart2_tx = {PX_GPIO_UART2_TX};</v>
+      </c>
+      <c r="U4" s="3" t="str">
+        <f t="shared" ref="U4:U16" si="2">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+      <c r="W4" s="3" t="str">
+        <f t="shared" ref="W4:W16" si="3">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f t="shared" ref="Y4:Y16" si="4">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+      <c r="AA4" s="3" t="str">
+        <f t="shared" ref="AA4:AA16" si="5">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+      <c r="AC4" s="3" t="str">
+        <f t="shared" ref="AC4:AC16" si="6">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+      <c r="AE4" s="3" t="str">
+        <f t="shared" ref="AE4:AE9" si="7">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A4,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_UART2_TX) \</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -1013,42 +1654,42 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7">
         <f>VLOOKUP(D5,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7">
         <f>VLOOKUP(F5,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
         <f>VLOOKUP(H5,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K5" s="7">
         <f>VLOOKUP(J5,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <f>VLOOKUP(L5,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="7">
         <f>VLOOKUP(N5,Options!K$2:L$100,2,FALSE)</f>
@@ -1057,12 +1698,40 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART2_RX GPIO(A, 3, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_UART2_RX PX_GPIO(A, 3, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart2_rx = {PX_GPIO_UART2_RX};</v>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_UART2_RX) \</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1071,42 +1740,42 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP(D6,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7">
         <f>VLOOKUP(F6,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP(H6,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP(J6,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP(L6,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP(N6,Options!K$2:L$100,2,FALSE)</f>
@@ -1115,12 +1784,40 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_DAC GPIO(A, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_DAC PX_GPIO(A, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_dac = {PX_GPIO_DAC};</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_DAC) \</v>
+      </c>
+      <c r="W6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_DAC) \</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_DAC) \</v>
+      </c>
+      <c r="AA6" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_DAC) \</v>
+      </c>
+      <c r="AC6" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_DAC) \</v>
+      </c>
+      <c r="AE6" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_DAC) \</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1129,42 +1826,42 @@
         <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP(D7,Options!A$2:B$100,2,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7">
         <f>VLOOKUP(F7,Options!C$2:D$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP(H7,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP(J7,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP(L7,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP(N7,Options!K$2:L$100,2,FALSE)</f>
@@ -1173,12 +1870,40 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_ADC2 GPIO(A, 5, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_1 PX_GPIO(A, 5, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_1 = {PX_GPIO_1};</v>
+      </c>
+      <c r="U7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_1) \</v>
+      </c>
+      <c r="W7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_1) \</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_1) \</v>
+      </c>
+      <c r="AA7" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_1) \</v>
+      </c>
+      <c r="AC7" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_1) \</v>
+      </c>
+      <c r="AE7" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_1) \</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1187,42 +1912,42 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <f>VLOOKUP(D8,Options!A$2:B$100,2,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7">
         <f>VLOOKUP(F8,Options!C$2:D$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="7">
         <f>VLOOKUP(H8,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="7">
         <f>VLOOKUP(J8,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <f>VLOOKUP(L8,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8" s="7">
         <f>VLOOKUP(N8,Options!K$2:L$100,2,FALSE)</f>
@@ -1231,12 +1956,40 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_ADC1 GPIO(A, 6, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_0 PX_GPIO(A, 6, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_0 = {PX_GPIO_0};</v>
+      </c>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_0) \</v>
+      </c>
+      <c r="W8" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_0) \</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_0) \</v>
+      </c>
+      <c r="AA8" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_0) \</v>
+      </c>
+      <c r="AC8" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_0) \</v>
+      </c>
+      <c r="AE8" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_0) \</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -1245,42 +1998,42 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7">
         <f>VLOOKUP(D9,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7">
         <f>VLOOKUP(F9,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
         <f>VLOOKUP(H9,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7">
         <f>VLOOKUP(J9,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <f>VLOOKUP(L9,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="7">
         <f>VLOOKUP(N9,Options!K$2:L$100,2,FALSE)</f>
@@ -1289,12 +2042,40 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO__ADC0 GPIO(A, 7, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_ADC3 PX_GPIO(A, 7, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_adc3 = {PX_GPIO_ADC3};</v>
+      </c>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+      <c r="W9" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+      <c r="AA9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+      <c r="AC9" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+      <c r="AE9" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC3) \</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -1310,35 +2091,35 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7">
         <f>VLOOKUP(F10,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
         <f>VLOOKUP(H10,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7">
         <f>VLOOKUP(J10,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <f>VLOOKUP(L10,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="7">
         <f>VLOOKUP(N10,Options!K$2:L$100,2,FALSE)</f>
@@ -1347,12 +2128,40 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_USB_DET GPIO(A, 8, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_USB_DET PX_GPIO(A, 8, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_usb_det = {PX_GPIO_USB_DET};</v>
+      </c>
+      <c r="U10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+      <c r="W10" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+      <c r="AA10" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+      <c r="AC10" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+      <c r="AE10" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A10,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB_DET) \</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1361,42 +2170,42 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
         <f>VLOOKUP(D11,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7">
         <f>VLOOKUP(F11,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
         <f>VLOOKUP(H11,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="7">
         <f>VLOOKUP(J11,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <f>VLOOKUP(L11,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O11" s="7">
         <f>VLOOKUP(N11,Options!K$2:L$100,2,FALSE)</f>
@@ -1405,12 +2214,40 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART1_TX GPIO(A, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_UART1_TX PX_GPIO(A, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart1_tx = {PX_GPIO_UART1_TX};</v>
+      </c>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+      <c r="W11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+      <c r="AA11" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+      <c r="AC11" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+      <c r="AE11" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A11,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART1_TX) \</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -1419,42 +2256,42 @@
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <f>VLOOKUP(D12,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7">
         <f>VLOOKUP(F12,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
         <f>VLOOKUP(H12,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K12" s="7">
         <f>VLOOKUP(J12,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="7">
         <f>VLOOKUP(L12,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="7">
         <f>VLOOKUP(N12,Options!K$2:L$100,2,FALSE)</f>
@@ -1463,12 +2300,40 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART1_RX GPIO(A, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_UART1_RX PX_GPIO(A, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart1_rx = {PX_GPIO_UART1_RX};</v>
+      </c>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+      <c r="W12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+      <c r="AA12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+      <c r="AC12" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+      <c r="AE12" s="3" t="str">
+        <f t="shared" ref="AE12:AE16" si="8">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A12,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART1_RX) \</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -1477,42 +2342,42 @@
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="7">
         <f>VLOOKUP(D13,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7">
         <f>VLOOKUP(F13,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
         <f>VLOOKUP(H13,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7">
         <f>VLOOKUP(J13,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <f>VLOOKUP(L13,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O13" s="7">
         <f>VLOOKUP(N13,Options!K$2:L$100,2,FALSE)</f>
@@ -1521,12 +2386,40 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_USB1D_N GPIO(A, 11, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_USB1D_N PX_GPIO(A, 11, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_usb1d_n = {PX_GPIO_USB1D_N};</v>
+      </c>
+      <c r="U13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+      <c r="W13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+      <c r="AA13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+      <c r="AC13" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+      <c r="AE13" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB1D_N) \</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -1535,42 +2428,42 @@
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7">
         <f>VLOOKUP(D14,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7">
         <f>VLOOKUP(F14,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
         <f>VLOOKUP(H14,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="7">
         <f>VLOOKUP(J14,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <f>VLOOKUP(L14,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O14" s="7">
         <f>VLOOKUP(N14,Options!K$2:L$100,2,FALSE)</f>
@@ -1579,12 +2472,40 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_USB1D_P GPIO(A, 12, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_USB1D_P PX_GPIO(A, 12, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_usb1d_p = {PX_GPIO_USB1D_P};</v>
+      </c>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+      <c r="W14" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+      <c r="AA14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+      <c r="AC14" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+      <c r="AE14" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB1D_P) \</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -1593,25 +2514,25 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7">
         <f>VLOOKUP(D15,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7">
         <f>VLOOKUP(F15,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
         <f>VLOOKUP(H15,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>6</v>
@@ -1621,14 +2542,14 @@
         <v>2</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="7">
         <f>VLOOKUP(L15,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O15" s="7">
         <f>VLOOKUP(N15,Options!K$2:L$100,2,FALSE)</f>
@@ -1637,12 +2558,40 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_SWDIO GPIO(A, 13, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_SWDIO PX_GPIO(A, 13, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_swdio = {PX_GPIO_SWDIO};</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+      <c r="W15" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+      <c r="AA15" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+      <c r="AC15" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+      <c r="AE15" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SWDIO) \</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -1651,42 +2600,42 @@
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="7">
         <f>VLOOKUP(D16,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7">
         <f>VLOOKUP(F16,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
         <f>VLOOKUP(H16,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="7">
         <f>VLOOKUP(J16,Options!G$2:H$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="7">
         <f>VLOOKUP(L16,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O16" s="7">
         <f>VLOOKUP(N16,Options!K$2:L$100,2,FALSE)</f>
@@ -1695,12 +2644,40 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_SWDCK GPIO(A, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_SWDCK PX_GPIO(A, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_swdck = {PX_GPIO_SWDCK};</v>
+      </c>
+      <c r="U16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+      <c r="W16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+      <c r="AA16" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+      <c r="AC16" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+      <c r="AE16" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SWDCK) \</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1716,14 +2693,14 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="7">
         <f>VLOOKUP(F17,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="7">
         <f>VLOOKUP(H17,Options!E$2:F$100,2,FALSE)</f>
@@ -1737,14 +2714,14 @@
         <v>2</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <f>VLOOKUP(L17,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="7">
         <f>VLOOKUP(N17,Options!K$2:L$100,2,FALSE)</f>
@@ -1753,56 +2730,120 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_LCD_BTN_5_NO GPIO(A, 15, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_LCD_BTN_5_NO PX_GPIO(A, 15, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_5_no = {PX_GPIO_LCD_BTN_5_NO};</v>
+      </c>
+      <c r="U17" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A17,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <f t="shared" ref="W17" si="9">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A17,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" ref="Y17" si="10">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A17,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+      <c r="AA17" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A17,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+      <c r="AC17" s="3" t="str">
+        <f t="shared" ref="AC17" si="11">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A17,")")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+      <c r="AE17" s="3" t="str">
+        <f t="shared" ref="AE17" si="12">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A17,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="2"/>
+      <c r="U18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E19" s="7">
         <f>VLOOKUP(D19,Options!A$2:B$100,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7">
         <f>VLOOKUP(F19,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
         <f>VLOOKUP(H19,Options!E$2:F$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="7">
         <f>VLOOKUP(J19,Options!G$2:H$100,2,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
         <f>VLOOKUP(L19,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O19" s="7">
         <f>VLOOKUP(N19,Options!K$2:L$100,2,FALSE)</f>
@@ -1810,57 +2851,85 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="3" t="str">
-        <f t="shared" ref="Q19:Q34" si="1">CONCATENATE("#define ",A19," GPIO(",B19,", ",C19,", ",D19,", ",F19,", ",H19,", ",J19,", ",L19,", ",N19,")")</f>
-        <v>#define PX_GPIO_1 GPIO(B, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_ADC0 PX_GPIO(B, 0, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_adc0 = {PX_GPIO_ADC0};</v>
+      </c>
+      <c r="U19" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+      <c r="W19" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+      <c r="AA19" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+      <c r="AC19" s="3" t="str">
+        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+      <c r="AE19" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A19,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC0) \</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E20" s="7">
         <f>VLOOKUP(D20,Options!A$2:B$100,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7">
         <f>VLOOKUP(F20,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I20" s="7">
         <f>VLOOKUP(H20,Options!E$2:F$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="7">
         <f>VLOOKUP(J20,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M20" s="7">
         <f>VLOOKUP(L20,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O20" s="7">
         <f>VLOOKUP(N20,Options!K$2:L$100,2,FALSE)</f>
@@ -1868,16 +2937,44 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_ADC_VBAT PX_GPIO(B, 1, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_0 GPIO(B, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc_vbat = {PX_GPIO_ADC_VBAT};</v>
+      </c>
+      <c r="U20" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+      <c r="W20" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+      <c r="AA20" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+      <c r="AC20" s="3" t="str">
+        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+      <c r="AE20" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A20,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC_VBAT) \</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -1890,144 +2987,200 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7">
         <f>VLOOKUP(F21,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I21" s="7">
         <f>VLOOKUP(H21,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="7">
         <f>VLOOKUP(J21,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" s="7">
         <f>VLOOKUP(L21,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O21" s="7">
         <f>VLOOKUP(N21,Options!K$2:L$100,2,FALSE)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI2_CS_DF PX_GPIO(B, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI2_CS_LCD GPIO(B, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_cs_df = {PX_GPIO_SPI2_CS_DF};</v>
+      </c>
+      <c r="U21" s="3" t="str">
+        <f t="shared" ref="U21:U33" si="13">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+      <c r="W21" s="3" t="str">
+        <f t="shared" ref="W21:W33" si="14">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <f t="shared" ref="Y21:Y33" si="15">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+      <c r="AA21" s="3" t="str">
+        <f t="shared" ref="AA21:AA33" si="16">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+      <c r="AC21" s="3" t="str">
+        <f t="shared" ref="AC21:AC33" si="17">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+      <c r="AE21" s="3" t="str">
+        <f t="shared" ref="AE21:AE26" si="18">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A21,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
         <f>VLOOKUP(D22,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="7">
         <f>VLOOKUP(F22,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
         <f>VLOOKUP(H22,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="7">
         <f>VLOOKUP(J22,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
         <f>VLOOKUP(L22,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O22" s="7">
         <f>VLOOKUP(N22,Options!K$2:L$100,2,FALSE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI1_SCK PX_GPIO(B, 3, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI1_SCK GPIO(B, 3, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_sck = {PX_GPIO_SPI1_SCK};</v>
+      </c>
+      <c r="U22" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+      <c r="W22" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+      <c r="AA22" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+      <c r="AC22" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+      <c r="AE22" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_SCK) \</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="7">
         <f>VLOOKUP(D23,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7">
         <f>VLOOKUP(F23,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7">
         <f>VLOOKUP(H23,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K23" s="7">
         <f>VLOOKUP(J23,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <f>VLOOKUP(L23,Options!I$2:J$100,2,FALSE)</f>
@@ -2038,54 +3191,82 @@
       </c>
       <c r="O23" s="7">
         <f>VLOOKUP(N23,Options!K$2:L$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI1_MISO PX_GPIO(B, 4, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI1_MISO GPIO(B, 4, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_miso = {PX_GPIO_SPI1_MISO};</v>
+      </c>
+      <c r="U23" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+      <c r="W23" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+      <c r="AA23" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+      <c r="AC23" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+      <c r="AE23" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_MISO) \</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="7">
         <f>VLOOKUP(D24,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="7">
         <f>VLOOKUP(F24,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
         <f>VLOOKUP(H24,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="7">
         <f>VLOOKUP(J24,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24" s="7">
         <f>VLOOKUP(L24,Options!I$2:J$100,2,FALSE)</f>
@@ -2096,20 +3277,48 @@
       </c>
       <c r="O24" s="7">
         <f>VLOOKUP(N24,Options!K$2:L$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI1_MOSI PX_GPIO(B, 5, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI1_MOSI GPIO(B, 5, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_mosi = {PX_GPIO_SPI1_MOSI};</v>
+      </c>
+      <c r="U24" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+      <c r="W24" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+      <c r="AA24" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+      <c r="AC24" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+      <c r="AE24" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_MOSI) \</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4">
         <v>6</v>
@@ -2122,35 +3331,35 @@
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="7">
         <f>VLOOKUP(F25,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I25" s="7">
         <f>VLOOKUP(H25,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="7">
         <f>VLOOKUP(J25,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M25" s="7">
         <f>VLOOKUP(L25,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O25" s="7">
         <f>VLOOKUP(N25,Options!K$2:L$100,2,FALSE)</f>
@@ -2158,16 +3367,44 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI1_CS PX_GPIO(B, 6, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_CS GPIO(B, 6, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_cs = {PX_GPIO_SPI1_CS};</v>
+      </c>
+      <c r="U25" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+      <c r="W25" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+      <c r="AA25" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+      <c r="AC25" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+      <c r="AE25" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_CS) \</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4">
         <v>7</v>
@@ -2184,31 +3421,31 @@
       </c>
       <c r="G26" s="7">
         <f>VLOOKUP(F26,Options!C$2:D$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I26" s="7">
         <f>VLOOKUP(H26,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K26" s="7">
         <f>VLOOKUP(J26,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26" s="7">
         <f>VLOOKUP(L26,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O26" s="7">
         <f>VLOOKUP(N26,Options!K$2:L$100,2,FALSE)</f>
@@ -2216,115 +3453,171 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_7_SD_CD PX_GPIO(B, 7, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SD_CD GPIO(B, 7, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_7_sd_cd = {PX_GPIO_7_SD_CD};</v>
+      </c>
+      <c r="U26" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+      <c r="W26" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+      <c r="AA26" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+      <c r="AC26" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+      <c r="AE26" s="3" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_7_SD_CD) \</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
         <f>VLOOKUP(D27,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7">
         <f>VLOOKUP(F27,Options!C$2:D$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="7">
         <f>VLOOKUP(H27,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="7">
         <f>VLOOKUP(J27,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M27" s="7">
         <f>VLOOKUP(L27,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O27" s="7">
         <f>VLOOKUP(N27,Options!K$2:L$100,2,FALSE)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_I2C1_SCL PX_GPIO(B, 8, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_I2C1_SCL GPIO(B, 8, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c1_scl = {PX_GPIO_I2C1_SCL};</v>
+      </c>
+      <c r="U27" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+      <c r="W27" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+      <c r="AA27" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+      <c r="AC27" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+      <c r="AE27" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A27,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_I2C1_SCL) \</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
         <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7">
         <f>VLOOKUP(D28,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="7">
         <f>VLOOKUP(F28,Options!C$2:D$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="7">
         <f>VLOOKUP(H28,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="7">
         <f>VLOOKUP(J28,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M28" s="7">
         <f>VLOOKUP(L28,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O28" s="7">
         <f>VLOOKUP(N28,Options!K$2:L$100,2,FALSE)</f>
@@ -2332,16 +3625,44 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_I2C1_SDA PX_GPIO(B, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_I2C1_SDA GPIO(B, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c1_sda = {PX_GPIO_I2C1_SDA};</v>
+      </c>
+      <c r="U28" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+      <c r="W28" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+      <c r="Y28" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+      <c r="AA28" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+      <c r="AC28" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+      <c r="AE28" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A28,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_I2C1_SDA) \</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
@@ -2354,52 +3675,80 @@
         <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="7">
         <f>VLOOKUP(F29,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="7">
         <f>VLOOKUP(H29,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="7">
         <f>VLOOKUP(J29,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M29" s="7">
         <f>VLOOKUP(L29,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O29" s="7">
         <f>VLOOKUP(N29,Options!K$2:L$100,2,FALSE)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI2_CS_LCD PX_GPIO(B, 10, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_LCD_RST GPIO(B, 10, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_cs_lcd = {PX_GPIO_SPI2_CS_LCD};</v>
+      </c>
+      <c r="U29" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+      <c r="W29" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+      <c r="Y29" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+      <c r="AA29" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+      <c r="AC29" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+      <c r="AE29" s="3" t="str">
+        <f t="shared" ref="AE29:AE33" si="19">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A29,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4">
         <v>11</v>
@@ -2412,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" s="7">
         <f>VLOOKUP(F30,Options!C$2:D$100,2,FALSE)</f>
@@ -2423,10 +3772,10 @@
       </c>
       <c r="I30" s="7">
         <f>VLOOKUP(H30,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="7">
         <f>VLOOKUP(J30,Options!G$2:H$100,2,FALSE)</f>
@@ -2437,10 +3786,10 @@
       </c>
       <c r="M30" s="7">
         <f>VLOOKUP(L30,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O30" s="7">
         <f>VLOOKUP(N30,Options!K$2:L$100,2,FALSE)</f>
@@ -2448,16 +3797,44 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_RS PX_GPIO(B, 11, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_LO, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_LCD_RS GPIO(B, 11, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_rs = {PX_GPIO_LCD_RS};</v>
+      </c>
+      <c r="U30" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+      <c r="W30" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+      <c r="Y30" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+      <c r="AA30" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+      <c r="AC30" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+      <c r="AE30" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_RS) \</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="4">
         <v>12</v>
@@ -2470,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" s="7">
         <f>VLOOKUP(F31,Options!C$2:D$100,2,FALSE)</f>
@@ -2481,24 +3858,24 @@
       </c>
       <c r="I31" s="7">
         <f>VLOOKUP(H31,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="7">
         <f>VLOOKUP(J31,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31" s="7">
         <f>VLOOKUP(L31,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O31" s="7">
         <f>VLOOKUP(N31,Options!K$2:L$100,2,FALSE)</f>
@@ -2506,57 +3883,85 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BACKLIGHT PX_GPIO(B, 12, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI2_CS_DF GPIO(B, 12, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_backlight = {PX_GPIO_LCD_BACKLIGHT};</v>
+      </c>
+      <c r="U31" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+      <c r="W31" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+      <c r="Y31" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+      <c r="AA31" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+      <c r="AC31" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+      <c r="AE31" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4">
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="7">
         <f>VLOOKUP(D32,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32" s="7">
         <f>VLOOKUP(F32,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="7">
         <f>VLOOKUP(H32,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K32" s="7">
         <f>VLOOKUP(J32,Options!G$2:H$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7">
         <f>VLOOKUP(L32,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O32" s="7">
         <f>VLOOKUP(N32,Options!K$2:L$100,2,FALSE)</f>
@@ -2564,57 +3969,85 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI2_SCK PX_GPIO(B, 13, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI2_SCK GPIO(B, 13, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_sck = {PX_GPIO_SPI2_SCK};</v>
+      </c>
+      <c r="U32" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+      <c r="W32" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+      <c r="Y32" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+      <c r="AA32" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+      <c r="AC32" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+      <c r="AE32" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_SCK) \</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="4">
         <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="7">
         <f>VLOOKUP(D33,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G33" s="7">
         <f>VLOOKUP(F33,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7">
         <f>VLOOKUP(H33,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K33" s="7">
         <f>VLOOKUP(J33,Options!G$2:H$100,2,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <f>VLOOKUP(L33,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O33" s="7">
         <f>VLOOKUP(N33,Options!K$2:L$100,2,FALSE)</f>
@@ -2622,50 +4055,78 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI2_MISO PX_GPIO(B, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI2_MISO GPIO(B, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_miso = {PX_GPIO_SPI2_MISO};</v>
+      </c>
+      <c r="U33" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+      <c r="W33" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+      <c r="Y33" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+      <c r="AA33" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+      <c r="AC33" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+      <c r="AE33" s="3" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_MISO) \</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4">
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="7">
         <f>VLOOKUP(D34,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7">
         <f>VLOOKUP(F34,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I34" s="7">
         <f>VLOOKUP(H34,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K34" s="7">
         <f>VLOOKUP(J34,Options!G$2:H$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M34" s="7">
         <f>VLOOKUP(L34,Options!I$2:J$100,2,FALSE)</f>
@@ -2676,61 +4137,125 @@
       </c>
       <c r="O34" s="7">
         <f>VLOOKUP(N34,Options!K$2:L$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI2_MOSI PX_GPIO(B, 15, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+      </c>
+      <c r="S34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>#define PX_GPIO_SPI2_MOSI GPIO(B, 15, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_mosi = {PX_GPIO_SPI2_MOSI};</v>
+      </c>
+      <c r="U34" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A34,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+      <c r="W34" s="3" t="str">
+        <f t="shared" ref="W34" si="20">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A34,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+      <c r="Y34" s="3" t="str">
+        <f t="shared" ref="Y34" si="21">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A34,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+      <c r="AA34" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A34,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+      <c r="AC34" s="3" t="str">
+        <f t="shared" ref="AC34" si="22">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A34,")")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+      <c r="AE34" s="3" t="str">
+        <f t="shared" ref="AE34" si="23">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A34,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_MOSI)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="2"/>
+      <c r="U35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE35" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="7">
         <f>VLOOKUP(D36,Options!A$2:B$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7">
         <f>VLOOKUP(F36,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I36" s="7">
         <f>VLOOKUP(H36,Options!E$2:F$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K36" s="7">
         <f>VLOOKUP(J36,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M36" s="7">
         <f>VLOOKUP(L36,Options!I$2:J$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O36" s="7">
         <f>VLOOKUP(N36,Options!K$2:L$100,2,FALSE)</f>
@@ -2738,16 +4263,44 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="3" t="str">
-        <f t="shared" ref="Q36:Q51" si="2">CONCATENATE("#define ",A36," GPIO(",B36,", ",C36,", ",D36,", ",F36,", ",H36,", ",J36,", ",L36,", ",N36,")")</f>
-        <v>#define PX_GPIO_USR_LED GPIO(C, 0, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_LO, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BTN_1_LT PX_GPIO(C, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_1_lt = {PX_GPIO_LCD_BTN_1_LT};</v>
+      </c>
+      <c r="U36" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+      <c r="W36" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+      <c r="Y36" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+      <c r="AA36" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+      <c r="AC36" s="3" t="str">
+        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+      <c r="AE36" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A36,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2760,35 +4313,35 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G37" s="7">
         <f>VLOOKUP(F37,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="7">
         <f>VLOOKUP(H37,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" s="7">
         <f>VLOOKUP(J37,Options!G$2:H$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M37" s="7">
         <f>VLOOKUP(L37,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O37" s="7">
         <f>VLOOKUP(N37,Options!K$2:L$100,2,FALSE)</f>
@@ -2796,16 +4349,44 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_6 GPIO(C, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_6 PX_GPIO(C, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_6 = {PX_GPIO_6};</v>
+      </c>
+      <c r="U37" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_6) \</v>
+      </c>
+      <c r="W37" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_6) \</v>
+      </c>
+      <c r="Y37" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_6) \</v>
+      </c>
+      <c r="AA37" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_6) \</v>
+      </c>
+      <c r="AC37" s="3" t="str">
+        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_6) \</v>
+      </c>
+      <c r="AE37" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A37,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_6) \</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -2818,35 +4399,35 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" s="7">
         <f>VLOOKUP(F38,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="7">
         <f>VLOOKUP(H38,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" s="7">
         <f>VLOOKUP(J38,Options!G$2:H$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M38" s="7">
         <f>VLOOKUP(L38,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O38" s="7">
         <f>VLOOKUP(N38,Options!K$2:L$100,2,FALSE)</f>
@@ -2854,16 +4435,44 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_5 GPIO(C, 2, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_5 PX_GPIO(C, 2, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_5 = {PX_GPIO_5};</v>
+      </c>
+      <c r="U38" s="3" t="str">
+        <f t="shared" ref="U38:U50" si="24">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_5) \</v>
+      </c>
+      <c r="W38" s="3" t="str">
+        <f t="shared" ref="W38:W50" si="25">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_5) \</v>
+      </c>
+      <c r="Y38" s="3" t="str">
+        <f t="shared" ref="Y38:Y50" si="26">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_5) \</v>
+      </c>
+      <c r="AA38" s="3" t="str">
+        <f t="shared" ref="AA38:AA50" si="27">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_5) \</v>
+      </c>
+      <c r="AC38" s="3" t="str">
+        <f t="shared" ref="AC38:AC50" si="28">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_5) \</v>
+      </c>
+      <c r="AE38" s="3" t="str">
+        <f t="shared" ref="AE38:AE43" si="29">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A38,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_5) \</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -2876,35 +4485,35 @@
         <v>1</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" s="7">
         <f>VLOOKUP(F39,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="7">
         <f>VLOOKUP(H39,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" s="7">
         <f>VLOOKUP(J39,Options!G$2:H$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M39" s="7">
         <f>VLOOKUP(L39,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O39" s="7">
         <f>VLOOKUP(N39,Options!K$2:L$100,2,FALSE)</f>
@@ -2912,57 +4521,85 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_4 GPIO(C, 3, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_4 PX_GPIO(C, 3, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_4 = {PX_GPIO_4};</v>
+      </c>
+      <c r="U39" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_4) \</v>
+      </c>
+      <c r="W39" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_4) \</v>
+      </c>
+      <c r="Y39" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_4) \</v>
+      </c>
+      <c r="AA39" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_4) \</v>
+      </c>
+      <c r="AC39" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_4) \</v>
+      </c>
+      <c r="AE39" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_4) \</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4">
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="7">
         <f>VLOOKUP(D40,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="7">
         <f>VLOOKUP(F40,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I40" s="7">
         <f>VLOOKUP(H40,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" s="7">
         <f>VLOOKUP(J40,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M40" s="7">
         <f>VLOOKUP(L40,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O40" s="7">
         <f>VLOOKUP(N40,Options!K$2:L$100,2,FALSE)</f>
@@ -2970,57 +4607,85 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_ADC_VBAT GPIO(C, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_ADC2 PX_GPIO(C, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_adc2 = {PX_GPIO_ADC2};</v>
+      </c>
+      <c r="U40" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+      <c r="W40" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+      <c r="Y40" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+      <c r="AA40" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+      <c r="AC40" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+      <c r="AE40" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC2) \</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E41" s="7">
         <f>VLOOKUP(D41,Options!A$2:B$100,2,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G41" s="7">
         <f>VLOOKUP(F41,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I41" s="7">
         <f>VLOOKUP(H41,Options!E$2:F$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K41" s="7">
         <f>VLOOKUP(J41,Options!G$2:H$100,2,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M41" s="7">
         <f>VLOOKUP(L41,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O41" s="7">
         <f>VLOOKUP(N41,Options!K$2:L$100,2,FALSE)</f>
@@ -3028,57 +4693,85 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_2 GPIO(C, 5, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_ADC1 PX_GPIO(C, 5, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_adc1 = {PX_GPIO_ADC1};</v>
+      </c>
+      <c r="U41" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+      <c r="W41" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+      <c r="Y41" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+      <c r="AA41" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+      <c r="AC41" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+      <c r="AE41" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC1) \</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" s="7">
         <f>VLOOKUP(D42,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G42" s="7">
         <f>VLOOKUP(F42,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" s="7">
         <f>VLOOKUP(H42,Options!E$2:F$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" s="7">
         <f>VLOOKUP(J42,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M42" s="7">
         <f>VLOOKUP(L42,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O42" s="7">
         <f>VLOOKUP(N42,Options!K$2:L$100,2,FALSE)</f>
@@ -3086,16 +4779,44 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_PWM_BUZZER GPIO(C, 6, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_2)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_PWM_BUZZER PX_GPIO(C, 6, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_2)</v>
+      </c>
+      <c r="S42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_pwm_buzzer = {PX_GPIO_PWM_BUZZER};</v>
+      </c>
+      <c r="U42" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+      <c r="W42" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+      <c r="Y42" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+      <c r="AA42" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+      <c r="AC42" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+      <c r="AE42" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_PWM_BUZZER) \</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C43" s="4">
         <v>7</v>
@@ -3108,35 +4829,35 @@
         <v>2</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="7">
         <f>VLOOKUP(F43,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="7">
         <f>VLOOKUP(H43,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="7">
         <f>VLOOKUP(J43,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M43" s="7">
         <f>VLOOKUP(L43,Options!I$2:J$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O43" s="7">
         <f>VLOOKUP(N43,Options!K$2:L$100,2,FALSE)</f>
@@ -3144,16 +4865,44 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_VBAT_MEAS_EN GPIO(C, 7, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_LO, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_VBAT_MEAS_EN PX_GPIO(C, 7, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_LO, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_vbat_meas_en = {PX_GPIO_VBAT_MEAS_EN};</v>
+      </c>
+      <c r="U43" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+      <c r="W43" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+      <c r="Y43" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+      <c r="AA43" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+      <c r="AC43" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+      <c r="AE43" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44" s="4">
         <v>8</v>
@@ -3166,35 +4915,35 @@
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" s="7">
         <f>VLOOKUP(F44,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="7">
         <f>VLOOKUP(H44,Options!E$2:F$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" s="7">
         <f>VLOOKUP(J44,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M44" s="7">
         <f>VLOOKUP(L44,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O44" s="7">
         <f>VLOOKUP(N44,Options!K$2:L$100,2,FALSE)</f>
@@ -3202,16 +4951,44 @@
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_3V3_HOLD GPIO(C, 8, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_3V3_HOLD PX_GPIO(C, 8, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_3v3_hold = {PX_GPIO_3V3_HOLD};</v>
+      </c>
+      <c r="U44" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+      <c r="W44" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+      <c r="Y44" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+      <c r="AA44" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+      <c r="AC44" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+      <c r="AE44" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A44,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_3V3_HOLD) \</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4">
         <v>9</v>
@@ -3224,14 +5001,14 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="7">
         <f>VLOOKUP(F45,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I45" s="7">
         <f>VLOOKUP(H45,Options!E$2:F$100,2,FALSE)</f>
@@ -3245,14 +5022,14 @@
         <v>2</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M45" s="7">
         <f>VLOOKUP(L45,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O45" s="7">
         <f>VLOOKUP(N45,Options!K$2:L$100,2,FALSE)</f>
@@ -3260,57 +5037,85 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_LCD_BTN_6_YES GPIO(C, 9, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BTN_6_YES PX_GPIO(C, 9, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_6_yes = {PX_GPIO_LCD_BTN_6_YES};</v>
+      </c>
+      <c r="U45" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+      <c r="W45" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+      <c r="Y45" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+      <c r="AA45" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+      <c r="AC45" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+      <c r="AE45" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A45,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="7">
         <f>VLOOKUP(D46,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G46" s="7">
         <f>VLOOKUP(F46,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I46" s="7">
         <f>VLOOKUP(H46,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" s="7">
         <f>VLOOKUP(J46,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M46" s="7">
         <f>VLOOKUP(L46,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O46" s="7">
         <f>VLOOKUP(N46,Options!K$2:L$100,2,FALSE)</f>
@@ -3318,57 +5123,85 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_UART3_TX GPIO(C, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_UART3_TX PX_GPIO(C, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart3_tx = {PX_GPIO_UART3_TX};</v>
+      </c>
+      <c r="U46" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+      <c r="W46" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+      <c r="Y46" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+      <c r="AA46" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+      <c r="AC46" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+      <c r="AE46" s="3" t="str">
+        <f t="shared" ref="AE46:AE50" si="30">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A46,") \")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART3_TX) \</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="7">
         <f>VLOOKUP(D47,Options!A$2:B$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G47" s="7">
         <f>VLOOKUP(F47,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I47" s="7">
         <f>VLOOKUP(H47,Options!E$2:F$100,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K47" s="7">
         <f>VLOOKUP(J47,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M47" s="7">
         <f>VLOOKUP(L47,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O47" s="7">
         <f>VLOOKUP(N47,Options!K$2:L$100,2,FALSE)</f>
@@ -3376,16 +5209,44 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_UART3_RX GPIO(C, 11, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_MD, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_UART3_RX PX_GPIO(C, 11, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
+      </c>
+      <c r="S47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_uart3_rx = {PX_GPIO_UART3_RX};</v>
+      </c>
+      <c r="U47" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+      <c r="W47" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+      <c r="Y47" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+      <c r="AA47" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+      <c r="AC47" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+      <c r="AE47" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART3_RX) \</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4">
         <v>12</v>
@@ -3398,14 +5259,14 @@
         <v>1</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G48" s="7">
         <f>VLOOKUP(F48,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48" s="7">
         <f>VLOOKUP(H48,Options!E$2:F$100,2,FALSE)</f>
@@ -3419,14 +5280,14 @@
         <v>2</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M48" s="7">
         <f>VLOOKUP(L48,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O48" s="7">
         <f>VLOOKUP(N48,Options!K$2:L$100,2,FALSE)</f>
@@ -3434,16 +5295,44 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_LCD_BTN_4_DN GPIO(C, 12, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BTN_4_DN PX_GPIO(C, 12, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_4_dn = {PX_GPIO_LCD_BTN_4_DN};</v>
+      </c>
+      <c r="U48" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+      <c r="W48" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+      <c r="Y48" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+      <c r="AA48" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+      <c r="AC48" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+      <c r="AE48" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C49" s="4">
         <v>13</v>
@@ -3456,14 +5345,14 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" s="7">
         <f>VLOOKUP(F49,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I49" s="7">
         <f>VLOOKUP(H49,Options!E$2:F$100,2,FALSE)</f>
@@ -3477,14 +5366,14 @@
         <v>2</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M49" s="7">
         <f>VLOOKUP(L49,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O49" s="7">
         <f>VLOOKUP(N49,Options!K$2:L$100,2,FALSE)</f>
@@ -3492,57 +5381,85 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_LCD_BTN_1_LT GPIO(C, 13, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BTN_3_UP PX_GPIO(C, 13, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_3_up = {PX_GPIO_LCD_BTN_3_UP};</v>
+      </c>
+      <c r="U49" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+      <c r="W49" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+      <c r="Y49" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+      <c r="AA49" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+      <c r="AC49" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+      <c r="AE49" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4">
         <v>14</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="7">
         <f>VLOOKUP(D50,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" s="7">
         <f>VLOOKUP(F50,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" s="7">
         <f>VLOOKUP(H50,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" s="7">
         <f>VLOOKUP(J50,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M50" s="7">
         <f>VLOOKUP(L50,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O50" s="7">
         <f>VLOOKUP(N50,Options!K$2:L$100,2,FALSE)</f>
@@ -3550,57 +5467,85 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_OSC32_IN GPIO(C, 14, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_OSC32_IN PX_GPIO(C, 14, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_osc32_in = {PX_GPIO_OSC32_IN};</v>
+      </c>
+      <c r="U50" s="3" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+      <c r="W50" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+      <c r="Y50" s="3" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+      <c r="AA50" s="3" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+      <c r="AC50" s="3" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+      <c r="AE50" s="3" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_OSC32_IN) \</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4">
         <v>15</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="7">
         <f>VLOOKUP(D51,Options!A$2:B$100,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="7">
         <f>VLOOKUP(F51,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="7">
         <f>VLOOKUP(H51,Options!E$2:F$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K51" s="7">
         <f>VLOOKUP(J51,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M51" s="7">
         <f>VLOOKUP(L51,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O51" s="7">
         <f>VLOOKUP(N51,Options!K$2:L$100,2,FALSE)</f>
@@ -3608,16 +5553,80 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>#define PX_GPIO_OSC32_OUT GPIO(C, 15, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_OSC32_OUT PX_GPIO(C, 15, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_osc32_out = {PX_GPIO_OSC32_OUT};</v>
+      </c>
+      <c r="U51" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A51,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+      <c r="W51" s="3" t="str">
+        <f t="shared" ref="W51" si="31">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A51,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+      <c r="Y51" s="3" t="str">
+        <f t="shared" ref="Y51" si="32">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A51,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+      <c r="AA51" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A51,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+      <c r="AC51" s="3" t="str">
+        <f t="shared" ref="AC51" si="33">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A51,")")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+      <c r="AE51" s="3" t="str">
+        <f t="shared" ref="AE51" si="34">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A51,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_OSC32_OUT)</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="2"/>
+      <c r="U52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -3630,35 +5639,35 @@
         <v>2</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G53" s="7">
         <f>VLOOKUP(F53,Options!C$2:D$100,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I53" s="7">
         <f>VLOOKUP(H53,Options!E$2:F$100,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" s="7">
         <f>VLOOKUP(J53,Options!G$2:H$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M53" s="7">
         <f>VLOOKUP(L53,Options!I$2:J$100,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O53" s="7">
         <f>VLOOKUP(N53,Options!K$2:L$100,2,FALSE)</f>
@@ -3666,57 +5675,121 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="3" t="str">
-        <f t="shared" ref="Q53" si="3">CONCATENATE("#define ",A53," GPIO(",B53,", ",C53,", ",D53,", ",F53,", ",H53,", ",J53,", ",L53,", ",N53,")")</f>
-        <v>#define PX_GPIO_SPI1_CS_SD GPIO(D, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_VH, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_SPI1_CS_SD PX_GPIO(D, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_spi1_cs_sd = {PX_GPIO_SPI1_CS_SD};</v>
+      </c>
+      <c r="U53" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A53,")")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+      <c r="W53" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A53,")")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+      <c r="Y53" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A53,")")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+      <c r="AA53" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A53,")")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+      <c r="AC53" s="3" t="str">
+        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A53,")")</f>
+        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+      <c r="AE53" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A53,")")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_CS_SD)</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="2"/>
+      <c r="U54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="7">
         <f>VLOOKUP(D55,Options!A$2:B$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="7">
         <f>VLOOKUP(F55,Options!C$2:D$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I55" s="7">
         <f>VLOOKUP(H55,Options!E$2:F$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K55" s="7">
         <f>VLOOKUP(J55,Options!G$2:H$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M55" s="7">
         <f>VLOOKUP(L55,Options!I$2:J$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O55" s="7">
         <f>VLOOKUP(N55,Options!K$2:L$100,2,FALSE)</f>
@@ -3724,16 +5797,44 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="3" t="str">
-        <f t="shared" ref="Q55:Q56" si="4">CONCATENATE("#define ",A55," GPIO(",B55,", ",C55,", ",D55,", ",F55,", ",H55,", ",J55,", ",L55,", ",N55,")")</f>
-        <v>#define PX_GPIO_LCD_BTN_2_RT GPIO(H, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_USR_LED PX_GPIO(H, 0, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_LO, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_usr_led = {PX_GPIO_USR_LED};</v>
+      </c>
+      <c r="U55" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+      <c r="W55" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+      <c r="AA55" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+      <c r="AC55" s="3" t="str">
+        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+      <c r="AE55" s="3" t="str">
+        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A55,") \")</f>
+        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_USR_LED) \</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -3746,14 +5847,14 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G56" s="7">
         <f>VLOOKUP(F56,Options!C$2:D$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I56" s="7">
         <f>VLOOKUP(H56,Options!E$2:F$100,2,FALSE)</f>
@@ -3767,14 +5868,14 @@
         <v>2</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M56" s="7">
         <f>VLOOKUP(L56,Options!I$2:J$100,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O56" s="7">
         <f>VLOOKUP(N56,Options!K$2:L$100,2,FALSE)</f>
@@ -3782,388 +5883,259 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>#define PX_GPIO_LCD_BTN_3_UP GPIO(H, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>#define PX_GPIO_LCD_BTN_2_RT PX_GPIO(H, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+      </c>
+      <c r="S56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_2_rt = {PX_GPIO_LCD_BTN_2_RT};</v>
+      </c>
+      <c r="U56" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A56,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+      <c r="W56" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A56,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" ref="Y56" si="35">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A56,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+      <c r="AA56" s="3" t="str">
+        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A56,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+      <c r="AC56" s="3" t="str">
+        <f t="shared" ref="AC56" si="36">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A56,")")</f>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+      <c r="AE56" s="3" t="str">
+        <f t="shared" ref="AE56" si="37">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A56,")")</f>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="E2:E56">
+    <cfRule type="cellIs" dxfId="53" priority="102" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="103" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="104" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="105" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G17">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="E2:E56">
+    <cfRule type="cellIs" dxfId="49" priority="97" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="98" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="99" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="100" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="101" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="G2:G56">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="G2:G56">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M17">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="I2:I56">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O17">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="9"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="I2:I56">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E34">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="K2:K56">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G34">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="K2:K56">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I34">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="M2:M56">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K34">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="M2:M56">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M34">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="O2:O56">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:O34">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="9"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="O2:O56">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>9</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:E51">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>8</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G51">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>7</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I51">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>6</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K51">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36:M51">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:O51">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="9"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O53">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="9"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E56">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="4"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G55:G56">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:I56">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="5"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:K56">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M56">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="3"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O55:O56">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="9"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17 D19:D34 D36:D51 D53 D55:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D56">
       <formula1>Mode</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17 F19:F34 F36:F51 F53 F55:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56">
       <formula1>OutputType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H17 H19:H34 H36:H51 H53 H55:H56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H56">
       <formula1>OutputSpeed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17 J19:J34 J36:J51 J53 J55:J56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J56">
       <formula1>Pull</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L17 L19:L34 L36:L51 L53 L55:L56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L56">
       <formula1>OutputInit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17 N19:N34 N36:N51 N53 N55:N56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N56">
       <formula1>AltFn</formula1>
     </dataValidation>
   </dataValidations>
@@ -4232,31 +6204,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4">
         <v>1</v>
@@ -4271,13 +6243,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -4289,13 +6261,13 @@
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="4">
         <v>2</v>
@@ -4304,37 +6276,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4">
         <v>3</v>
@@ -4343,19 +6315,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <v>4</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="4">
         <v>4</v>
@@ -4364,13 +6336,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" s="4">
         <v>5</v>
@@ -4379,7 +6351,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" s="4">
         <v>6</v>
@@ -4388,7 +6360,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="4">
         <v>7</v>
@@ -4397,7 +6369,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" s="4">
         <v>8</v>
@@ -4406,7 +6378,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="4">
         <v>9</v>

--- a/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
+++ b/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCA34A-656F-4A9D-A195-57ED3D076933}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO" sheetId="7" r:id="rId1"/>
@@ -19,11 +20,12 @@
     <definedName name="OutputType">Options!$C$2:$C$4</definedName>
     <definedName name="Pull">Options!$G$2:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -156,9 +158,6 @@
     <t>PX_GPIO_UART2_RX</t>
   </si>
   <si>
-    <t>PX_GPIO_DAC</t>
-  </si>
-  <si>
     <t>PX_GPIO_ADC2</t>
   </si>
   <si>
@@ -219,9 +218,6 @@
     <t>PX_GPIO_LCD_RS</t>
   </si>
   <si>
-    <t>PX_GPIO_SPI2_CS_DF</t>
-  </si>
-  <si>
     <t>PX_GPIO_SPI2_SCK</t>
   </si>
   <si>
@@ -264,12 +260,6 @@
     <t>PX_GPIO_LCD_BTN_6_YES</t>
   </si>
   <si>
-    <t>PX_GPIO_UART3_TX</t>
-  </si>
-  <si>
-    <t>PX_GPIO_UART3_RX</t>
-  </si>
-  <si>
     <t>PX_GPIO_LCD_BTN_4_DN</t>
   </si>
   <si>
@@ -403,12 +393,24 @@
   </si>
   <si>
     <t>#define GPIOH_MODER_VAL \</t>
+  </si>
+  <si>
+    <t>PX_GPIO_UART4_TX</t>
+  </si>
+  <si>
+    <t>PX_GPIO_UART4_RX</t>
+  </si>
+  <si>
+    <t>PX_GPIO_DAC1</t>
+  </si>
+  <si>
+    <t>PX_GPIO_SPI2_CS_SF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -561,28 +563,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1071,6 +1073,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1106,6 +1125,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1281,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC0A020"/>
   </sheetPr>
@@ -1361,28 +1397,28 @@
       <c r="O1" s="1"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -1473,7 +1509,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -1731,7 +1767,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1784,40 +1820,40 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_DAC PX_GPIO(A, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+        <v>#define PX_GPIO_DAC1 PX_GPIO(A, 4, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_dac = {PX_GPIO_DAC};</v>
+        <v>static const px_gpio_handle_t px_gpio_dac1 = {PX_GPIO_DAC1};</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_DAC1) \</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_DAC1) \</v>
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_DAC1) \</v>
       </c>
       <c r="AA6" s="3" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_DAC1) \</v>
       </c>
       <c r="AC6" s="3" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_DAC1) \</v>
       </c>
       <c r="AE6" s="3" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_DAC) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_DAC1) \</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -1903,7 +1939,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -2075,7 +2111,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -2161,7 +2197,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2247,7 +2283,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -2333,7 +2369,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
@@ -2419,7 +2455,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -2505,7 +2541,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -2591,7 +2627,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2677,7 +2713,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2779,30 +2815,30 @@
       <c r="O18" s="10"/>
       <c r="P18" s="2"/>
       <c r="U18" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -2885,10 +2921,10 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2971,10 +3007,10 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -3024,43 +3060,43 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_SPI2_CS_DF PX_GPIO(B, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
+        <v>#define PX_GPIO_SPI2_CS_SF PX_GPIO(B, 2, PX_GPIO_MODE_OUT, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_cs_df = {PX_GPIO_SPI2_CS_DF};</v>
+        <v>static const px_gpio_handle_t px_gpio_spi2_cs_sf = {PX_GPIO_SPI2_CS_SF};</v>
       </c>
       <c r="U21" s="3" t="str">
         <f t="shared" ref="U21:U33" si="13">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
       <c r="W21" s="3" t="str">
         <f t="shared" ref="W21:W33" si="14">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f t="shared" ref="Y21:Y33" si="15">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
       <c r="AA21" s="3" t="str">
         <f t="shared" ref="AA21:AA33" si="16">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
       <c r="AC21" s="3" t="str">
         <f t="shared" ref="AC21:AC33" si="17">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
       <c r="AE21" s="3" t="str">
         <f t="shared" ref="AE21:AE26" si="18">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI2_CS_DF) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI2_CS_SF) \</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4">
         <v>3</v>
@@ -3143,10 +3179,10 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
@@ -3229,10 +3265,10 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4">
         <v>5</v>
@@ -3315,10 +3351,10 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4">
         <v>6</v>
@@ -3401,10 +3437,10 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4">
         <v>7</v>
@@ -3487,10 +3523,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4">
         <v>8</v>
@@ -3573,10 +3609,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4">
         <v>9</v>
@@ -3659,10 +3695,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
@@ -3745,10 +3781,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4">
         <v>11</v>
@@ -3831,10 +3867,10 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4">
         <v>12</v>
@@ -3917,10 +3953,10 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4">
         <v>13</v>
@@ -4003,10 +4039,10 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4">
         <v>14</v>
@@ -4033,11 +4069,11 @@
         <v>1</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K33" s="7">
         <f>VLOOKUP(J33,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>25</v>
@@ -4056,7 +4092,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_SPI2_MISO PX_GPIO(B, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
+        <v>#define PX_GPIO_SPI2_MISO PX_GPIO(B, 14, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_0)</v>
       </c>
       <c r="S33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4089,10 +4125,10 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4">
         <v>15</v>
@@ -4191,30 +4227,30 @@
       <c r="O35" s="10"/>
       <c r="P35" s="2"/>
       <c r="U35" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -4297,10 +4333,10 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -4383,10 +4419,10 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -4469,10 +4505,10 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4">
         <v>3</v>
@@ -4555,10 +4591,10 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4">
         <v>4</v>
@@ -4641,10 +4677,10 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
@@ -4727,10 +4763,10 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="4">
         <v>6</v>
@@ -4813,10 +4849,10 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="4">
         <v>7</v>
@@ -4899,10 +4935,10 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="4">
         <v>8</v>
@@ -4985,10 +5021,10 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4">
         <v>9</v>
@@ -5071,10 +5107,10 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="4">
         <v>10</v>
@@ -5115,52 +5151,52 @@
         <v>3</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O46" s="7">
         <f>VLOOKUP(N46,Options!K$2:L$100,2,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART3_TX PX_GPIO(C, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+        <v>#define PX_GPIO_UART4_TX PX_GPIO(C, 10, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_6)</v>
       </c>
       <c r="S46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart3_tx = {PX_GPIO_UART3_TX};</v>
+        <v>static const px_gpio_handle_t px_gpio_uart4_tx = {PX_GPIO_UART4_TX};</v>
       </c>
       <c r="U46" s="3" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
       <c r="W46" s="3" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
       <c r="Y46" s="3" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
       <c r="AA46" s="3" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
       <c r="AC46" s="3" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
       <c r="AE46" s="3" t="str">
         <f t="shared" ref="AE46:AE50" si="30">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A46,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART3_TX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART4_TX) \</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4">
         <v>11</v>
@@ -5201,52 +5237,52 @@
         <v>1</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O47" s="7">
         <f>VLOOKUP(N47,Options!K$2:L$100,2,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_UART3_RX PX_GPIO(C, 11, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_4)</v>
+        <v>#define PX_GPIO_UART4_RX PX_GPIO(C, 11, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_6)</v>
       </c>
       <c r="S47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart3_rx = {PX_GPIO_UART3_RX};</v>
+        <v>static const px_gpio_handle_t px_gpio_uart4_rx = {PX_GPIO_UART4_RX};</v>
       </c>
       <c r="U47" s="3" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
       <c r="W47" s="3" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
       <c r="Y47" s="3" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
       <c r="AA47" s="3" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
       <c r="AC47" s="3" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
       <c r="AE47" s="3" t="str">
         <f t="shared" si="30"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART3_RX) \</v>
+        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART4_RX) \</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4">
         <v>12</v>
@@ -5329,10 +5365,10 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4">
         <v>13</v>
@@ -5415,10 +5451,10 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="4">
         <v>14</v>
@@ -5501,10 +5537,10 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="4">
         <v>15</v>
@@ -5603,30 +5639,30 @@
       <c r="O52" s="10"/>
       <c r="P52" s="2"/>
       <c r="U52" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -5725,30 +5761,30 @@
       <c r="O54" s="10"/>
       <c r="P54" s="2"/>
       <c r="U54" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC54" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -5831,10 +5867,10 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -6120,22 +6156,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Mode</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F56" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OutputType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H56" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OutputSpeed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J56" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Pull</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L56" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>OutputInit</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N56" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>AltFn</formula1>
     </dataValidation>
   </dataValidations>
@@ -6145,7 +6181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
+++ b/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BCA34A-656F-4A9D-A195-57ED3D076933}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433321B4-00CC-414E-BBC2-FFC14730EBB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3453,18 +3453,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7">
         <f>VLOOKUP(F26,Options!C$2:D$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="7">
         <f>VLOOKUP(H26,Options!E$2:F$100,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>6</v>
@@ -3490,7 +3490,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_7_SD_CD PX_GPIO(B, 7, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
+        <v>#define PX_GPIO_7_SD_CD PX_GPIO(B, 7, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3553,11 +3553,11 @@
         <v>2</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K27" s="7">
         <f>VLOOKUP(J27,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>27</v>
@@ -3576,7 +3576,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_I2C1_SCL PX_GPIO(B, 8, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+        <v>#define PX_GPIO_I2C1_SCL PX_GPIO(B, 8, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
       </c>
       <c r="S27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3639,11 +3639,11 @@
         <v>2</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="K28" s="7">
         <f>VLOOKUP(J28,Options!G$2:H$100,2,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>27</v>
@@ -3662,7 +3662,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_I2C1_SDA PX_GPIO(B, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
+        <v>#define PX_GPIO_I2C1_SDA PX_GPIO(B, 9, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_OD, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_HI, PX_GPIO_AF_4)</v>
       </c>
       <c r="S28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4772,11 +4772,11 @@
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" s="7">
         <f>VLOOKUP(D42,Options!A$2:B$100,2,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>16</v>
@@ -4816,7 +4816,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>#define PX_GPIO_PWM_BUZZER PX_GPIO(C, 6, PX_GPIO_MODE_AF, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_2)</v>
+        <v>#define PX_GPIO_PWM_BUZZER PX_GPIO(C, 6, PX_GPIO_MODE_ANA, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_HI, PX_GPIO_PULL_NO, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_2)</v>
       </c>
       <c r="S42" s="3" t="str">
         <f t="shared" si="1"/>

--- a/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
+++ b/boards/arm/stm32/piconomix_hero_board/px_board_gpio.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433321B4-00CC-414E-BBC2-FFC14730EBB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E35F9-4F07-4B3A-A4B4-28180AA923CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="95">
   <si>
     <t>Mode</t>
   </si>
@@ -305,96 +305,6 @@
     <t>Global variables</t>
   </si>
   <si>
-    <t>#define GPIOA_PUPDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_PUPDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_PUPDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_PUPDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_PUPDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOA_OTYPER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_OTYPER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_OTYPER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_OTYPER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_OTYPER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOA_OSPEEDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_OSPEEDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_OSPEEDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_OSPEEDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_OSPEEDR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOA_ODR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_ODR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_ODR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_ODR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_ODR_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOA_AFRL_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_AFRL_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_AFRL_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_AFRL_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_AFRL_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOA_MODER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOB_MODER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOC_MODER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOD_MODER_VAL \</t>
-  </si>
-  <si>
-    <t>#define GPIOH_MODER_VAL \</t>
-  </si>
-  <si>
     <t>PX_GPIO_UART4_TX</t>
   </si>
   <si>
@@ -405,6 +315,9 @@
   </si>
   <si>
     <t>PX_GPIO_SPI2_CS_SF</t>
+  </si>
+  <si>
+    <t>Map</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1234,7 @@
   <sheetPr>
     <tabColor rgb="FFC0A020"/>
   </sheetPr>
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1347,21 +1260,11 @@
     <col min="18" max="18" width="9.140625" style="3"/>
     <col min="19" max="19" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="21" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="3"/>
-    <col min="25" max="25" width="46.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="3"/>
-    <col min="27" max="27" width="44.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="3"/>
-    <col min="29" max="29" width="41.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="3"/>
-    <col min="31" max="31" width="41.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="3"/>
+    <col min="21" max="21" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1403,25 +1306,10 @@
         <v>89</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1483,31 +1371,11 @@
         <v>static const px_gpio_handle_t px_gpio_3 = {PX_GPIO_3};</v>
       </c>
       <c r="U2" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_3) \</v>
-      </c>
-      <c r="W2" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_3) \</v>
-      </c>
-      <c r="Y2" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_3) \</v>
-      </c>
-      <c r="AA2" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_3) \</v>
-      </c>
-      <c r="AC2" s="3" t="str">
-        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_3) \</v>
-      </c>
-      <c r="AE2" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A2,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_3) \</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+        <f>CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
+        <v>#define PX_GPIO_A0 PX_GPIO_3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1569,31 +1437,11 @@
         <v>static const px_gpio_handle_t px_gpio_2 = {PX_GPIO_2};</v>
       </c>
       <c r="U3" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_2) \</v>
-      </c>
-      <c r="W3" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_2) \</v>
-      </c>
-      <c r="Y3" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_2) \</v>
-      </c>
-      <c r="AA3" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_2) \</v>
-      </c>
-      <c r="AC3" s="3" t="str">
-        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_2) \</v>
-      </c>
-      <c r="AE3" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A3,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_2) \</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U3:U55" si="2">CONCATENATE("#define PX_GPIO_",$B3,$C3," ",$A3)</f>
+        <v>#define PX_GPIO_A1 PX_GPIO_2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -1655,31 +1503,11 @@
         <v>static const px_gpio_handle_t px_gpio_uart2_tx = {PX_GPIO_UART2_TX};</v>
       </c>
       <c r="U4" s="3" t="str">
-        <f t="shared" ref="U4:U16" si="2">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-      <c r="W4" s="3" t="str">
-        <f t="shared" ref="W4:W16" si="3">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-      <c r="Y4" s="3" t="str">
-        <f t="shared" ref="Y4:Y16" si="4">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-      <c r="AA4" s="3" t="str">
-        <f t="shared" ref="AA4:AA16" si="5">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-      <c r="AC4" s="3" t="str">
-        <f t="shared" ref="AC4:AC16" si="6">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-      <c r="AE4" s="3" t="str">
-        <f t="shared" ref="AE4:AE9" si="7">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A4,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_UART2_TX) \</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_A2 PX_GPIO_UART2_TX</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1742,32 +1570,12 @@
       </c>
       <c r="U5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-      <c r="W5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-      <c r="Y5" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-      <c r="AA5" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-      <c r="AC5" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-      <c r="AE5" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_UART2_RX) \</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A3 PX_GPIO_UART2_RX</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1828,30 +1636,10 @@
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-      <c r="W6" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-      <c r="Y6" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-      <c r="AA6" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-      <c r="AC6" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-      <c r="AE6" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_DAC1) \</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A4 PX_GPIO_DAC1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1914,30 +1702,10 @@
       </c>
       <c r="U7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_1) \</v>
-      </c>
-      <c r="W7" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_1) \</v>
-      </c>
-      <c r="Y7" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_1) \</v>
-      </c>
-      <c r="AA7" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_1) \</v>
-      </c>
-      <c r="AC7" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_1) \</v>
-      </c>
-      <c r="AE7" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_1) \</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A5 PX_GPIO_1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -2000,30 +1768,10 @@
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_0) \</v>
-      </c>
-      <c r="W8" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_0) \</v>
-      </c>
-      <c r="Y8" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_0) \</v>
-      </c>
-      <c r="AA8" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_0) \</v>
-      </c>
-      <c r="AC8" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_0) \</v>
-      </c>
-      <c r="AE8" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_0) \</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A6 PX_GPIO_0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -2086,30 +1834,10 @@
       </c>
       <c r="U9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-      <c r="W9" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-      <c r="Y9" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-      <c r="AA9" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-      <c r="AC9" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-      <c r="AE9" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC3) \</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A7 PX_GPIO_ADC3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -2172,30 +1900,10 @@
       </c>
       <c r="U10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-      <c r="W10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-      <c r="Y10" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-      <c r="AA10" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-      <c r="AC10" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-      <c r="AE10" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A10,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB_DET) \</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A8 PX_GPIO_USB_DET</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -2258,30 +1966,10 @@
       </c>
       <c r="U11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-      <c r="W11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-      <c r="Y11" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-      <c r="AA11" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-      <c r="AC11" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-      <c r="AE11" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A11,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART1_TX) \</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A9 PX_GPIO_UART1_TX</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -2344,30 +2032,10 @@
       </c>
       <c r="U12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-      <c r="W12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-      <c r="Y12" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-      <c r="AA12" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-      <c r="AC12" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-      <c r="AE12" s="3" t="str">
-        <f t="shared" ref="AE12:AE16" si="8">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A12,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART1_RX) \</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A10 PX_GPIO_UART1_RX</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -2430,30 +2098,10 @@
       </c>
       <c r="U13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-      <c r="W13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-      <c r="Y13" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-      <c r="AA13" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-      <c r="AC13" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-      <c r="AE13" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB1D_N) \</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A11 PX_GPIO_USB1D_N</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2516,30 +2164,10 @@
       </c>
       <c r="U14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-      <c r="W14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-      <c r="Y14" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-      <c r="AA14" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-      <c r="AC14" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-      <c r="AE14" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_USB1D_P) \</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A12 PX_GPIO_USB1D_P</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -2602,30 +2230,10 @@
       </c>
       <c r="U15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-      <c r="W15" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-      <c r="Y15" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-      <c r="AA15" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-      <c r="AC15" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-      <c r="AE15" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SWDIO) \</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A13 PX_GPIO_SWDIO</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2688,30 +2296,10 @@
       </c>
       <c r="U16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-      <c r="W16" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-      <c r="Y16" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-      <c r="AA16" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-      <c r="AC16" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-      <c r="AE16" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SWDCK) \</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+        <v>#define PX_GPIO_A14 PX_GPIO_SWDCK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -2773,31 +2361,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_5_no = {PX_GPIO_LCD_BTN_5_NO};</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A17,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-      <c r="W17" s="3" t="str">
-        <f t="shared" ref="W17" si="9">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A17,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-      <c r="Y17" s="3" t="str">
-        <f t="shared" ref="Y17" si="10">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A17,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-      <c r="AA17" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A17,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-      <c r="AC17" s="3" t="str">
-        <f t="shared" ref="AC17" si="11">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A17,")")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-      <c r="AE17" s="3" t="str">
-        <f t="shared" ref="AE17" si="12">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A17,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_5_NO)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_A15 PX_GPIO_LCD_BTN_5_NO</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2814,26 +2382,8 @@
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
       <c r="P18" s="2"/>
-      <c r="U18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -2895,31 +2445,11 @@
         <v>static const px_gpio_handle_t px_gpio_adc0 = {PX_GPIO_ADC0};</v>
       </c>
       <c r="U19" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-      <c r="W19" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-      <c r="Y19" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-      <c r="AA19" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-      <c r="AC19" s="3" t="str">
-        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-      <c r="AE19" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A19,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC0) \</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B0 PX_GPIO_ADC0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2981,33 +2511,13 @@
         <v>static const px_gpio_handle_t px_gpio_adc_vbat = {PX_GPIO_ADC_VBAT};</v>
       </c>
       <c r="U20" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-      <c r="W20" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-      <c r="Y20" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-      <c r="AA20" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-      <c r="AC20" s="3" t="str">
-        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-      <c r="AE20" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A20,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC_VBAT) \</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B1 PX_GPIO_ADC_VBAT</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -3067,31 +2577,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi2_cs_sf = {PX_GPIO_SPI2_CS_SF};</v>
       </c>
       <c r="U21" s="3" t="str">
-        <f t="shared" ref="U21:U33" si="13">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-      <c r="W21" s="3" t="str">
-        <f t="shared" ref="W21:W33" si="14">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-      <c r="Y21" s="3" t="str">
-        <f t="shared" ref="Y21:Y33" si="15">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-      <c r="AA21" s="3" t="str">
-        <f t="shared" ref="AA21:AA33" si="16">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-      <c r="AC21" s="3" t="str">
-        <f t="shared" ref="AC21:AC33" si="17">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-      <c r="AE21" s="3" t="str">
-        <f t="shared" ref="AE21:AE26" si="18">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A21,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI2_CS_SF) \</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B2 PX_GPIO_SPI2_CS_SF</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3153,31 +2643,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi1_sck = {PX_GPIO_SPI1_SCK};</v>
       </c>
       <c r="U22" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-      <c r="W22" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-      <c r="Y22" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-      <c r="AA22" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-      <c r="AC22" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-      <c r="AE22" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_SCK) \</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B3 PX_GPIO_SPI1_SCK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -3239,31 +2709,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi1_miso = {PX_GPIO_SPI1_MISO};</v>
       </c>
       <c r="U23" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-      <c r="W23" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-      <c r="Y23" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-      <c r="AA23" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-      <c r="AC23" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-      <c r="AE23" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_MISO) \</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B4 PX_GPIO_SPI1_MISO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -3325,31 +2775,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi1_mosi = {PX_GPIO_SPI1_MOSI};</v>
       </c>
       <c r="U24" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-      <c r="W24" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-      <c r="Y24" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-      <c r="AA24" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-      <c r="AC24" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-      <c r="AE24" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_MOSI) \</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B5 PX_GPIO_SPI1_MOSI</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -3411,31 +2841,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi1_cs = {PX_GPIO_SPI1_CS};</v>
       </c>
       <c r="U25" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-      <c r="W25" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-      <c r="Y25" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-      <c r="AA25" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-      <c r="AC25" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-      <c r="AE25" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_CS) \</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B6 PX_GPIO_SPI1_CS</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>86</v>
       </c>
@@ -3497,31 +2907,11 @@
         <v>static const px_gpio_handle_t px_gpio_7_sd_cd = {PX_GPIO_7_SD_CD};</v>
       </c>
       <c r="U26" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-      <c r="W26" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-      <c r="Y26" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-      <c r="AA26" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-      <c r="AC26" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-      <c r="AE26" s="3" t="str">
-        <f t="shared" si="18"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_7_SD_CD) \</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B7 PX_GPIO_7_SD_CD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
@@ -3583,31 +2973,11 @@
         <v>static const px_gpio_handle_t px_gpio_i2c1_scl = {PX_GPIO_I2C1_SCL};</v>
       </c>
       <c r="U27" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-      <c r="W27" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-      <c r="Y27" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-      <c r="AA27" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-      <c r="AC27" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-      <c r="AE27" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A27,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_I2C1_SCL) \</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B8 PX_GPIO_I2C1_SCL</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -3669,31 +3039,11 @@
         <v>static const px_gpio_handle_t px_gpio_i2c1_sda = {PX_GPIO_I2C1_SDA};</v>
       </c>
       <c r="U28" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-      <c r="W28" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-      <c r="Y28" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-      <c r="AA28" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-      <c r="AC28" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-      <c r="AE28" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A28,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_I2C1_SDA) \</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B9 PX_GPIO_I2C1_SDA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3755,31 +3105,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi2_cs_lcd = {PX_GPIO_SPI2_CS_LCD};</v>
       </c>
       <c r="U29" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-      <c r="W29" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-      <c r="Y29" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-      <c r="AA29" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-      <c r="AC29" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-      <c r="AE29" s="3" t="str">
-        <f t="shared" ref="AE29:AE33" si="19">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A29,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_CS_LCD) \</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B10 PX_GPIO_SPI2_CS_LCD</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -3841,31 +3171,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_rs = {PX_GPIO_LCD_RS};</v>
       </c>
       <c r="U30" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-      <c r="W30" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-      <c r="Y30" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-      <c r="AA30" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-      <c r="AC30" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-      <c r="AE30" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_RS) \</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B11 PX_GPIO_LCD_RS</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -3927,31 +3237,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_backlight = {PX_GPIO_LCD_BACKLIGHT};</v>
       </c>
       <c r="U31" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-      <c r="W31" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-      <c r="Y31" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-      <c r="AA31" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-      <c r="AC31" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-      <c r="AE31" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BACKLIGHT) \</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B12 PX_GPIO_LCD_BACKLIGHT</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -4013,31 +3303,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi2_sck = {PX_GPIO_SPI2_SCK};</v>
       </c>
       <c r="U32" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-      <c r="W32" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-      <c r="Y32" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-      <c r="AA32" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-      <c r="AC32" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-      <c r="AE32" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_SCK) \</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B13 PX_GPIO_SPI2_SCK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -4099,31 +3369,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi2_miso = {PX_GPIO_SPI2_MISO};</v>
       </c>
       <c r="U33" s="3" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-      <c r="W33" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-      <c r="Y33" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-      <c r="AA33" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-      <c r="AC33" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-      <c r="AE33" s="3" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_MISO) \</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B14 PX_GPIO_SPI2_MISO</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -4185,31 +3435,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi2_mosi = {PX_GPIO_SPI2_MOSI};</v>
       </c>
       <c r="U34" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A34,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-      <c r="W34" s="3" t="str">
-        <f t="shared" ref="W34" si="20">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A34,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-      <c r="Y34" s="3" t="str">
-        <f t="shared" ref="Y34" si="21">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A34,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-      <c r="AA34" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A34,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-      <c r="AC34" s="3" t="str">
-        <f t="shared" ref="AC34" si="22">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A34,")")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-      <c r="AE34" s="3" t="str">
-        <f t="shared" ref="AE34" si="23">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A34,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_SPI2_MOSI)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_B15 PX_GPIO_SPI2_MOSI</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4226,26 +3456,8 @@
       <c r="N35" s="9"/>
       <c r="O35" s="10"/>
       <c r="P35" s="2"/>
-      <c r="U35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE35" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>76</v>
       </c>
@@ -4307,31 +3519,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_1_lt = {PX_GPIO_LCD_BTN_1_LT};</v>
       </c>
       <c r="U36" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-      <c r="W36" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-      <c r="Y36" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-      <c r="AA36" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-      <c r="AC36" s="3" t="str">
-        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-      <c r="AE36" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A36,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_LCD_BTN_1_LT) \</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C0 PX_GPIO_LCD_BTN_1_LT</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
@@ -4393,31 +3585,11 @@
         <v>static const px_gpio_handle_t px_gpio_6 = {PX_GPIO_6};</v>
       </c>
       <c r="U37" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_6) \</v>
-      </c>
-      <c r="W37" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_6) \</v>
-      </c>
-      <c r="Y37" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_6) \</v>
-      </c>
-      <c r="AA37" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_6) \</v>
-      </c>
-      <c r="AC37" s="3" t="str">
-        <f>CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_6) \</v>
-      </c>
-      <c r="AE37" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A37,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_6) \</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C1 PX_GPIO_6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -4479,31 +3651,11 @@
         <v>static const px_gpio_handle_t px_gpio_5 = {PX_GPIO_5};</v>
       </c>
       <c r="U38" s="3" t="str">
-        <f t="shared" ref="U38:U50" si="24">CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_5) \</v>
-      </c>
-      <c r="W38" s="3" t="str">
-        <f t="shared" ref="W38:W50" si="25">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_5) \</v>
-      </c>
-      <c r="Y38" s="3" t="str">
-        <f t="shared" ref="Y38:Y50" si="26">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_5) \</v>
-      </c>
-      <c r="AA38" s="3" t="str">
-        <f t="shared" ref="AA38:AA50" si="27">CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_5) \</v>
-      </c>
-      <c r="AC38" s="3" t="str">
-        <f t="shared" ref="AC38:AC50" si="28">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_5) \</v>
-      </c>
-      <c r="AE38" s="3" t="str">
-        <f t="shared" ref="AE38:AE43" si="29">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A38,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_5) \</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C2 PX_GPIO_5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -4565,31 +3717,11 @@
         <v>static const px_gpio_handle_t px_gpio_4 = {PX_GPIO_4};</v>
       </c>
       <c r="U39" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_4) \</v>
-      </c>
-      <c r="W39" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_4) \</v>
-      </c>
-      <c r="Y39" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_4) \</v>
-      </c>
-      <c r="AA39" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_4) \</v>
-      </c>
-      <c r="AC39" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_4) \</v>
-      </c>
-      <c r="AE39" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_4) \</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C3 PX_GPIO_4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -4651,31 +3783,11 @@
         <v>static const px_gpio_handle_t px_gpio_adc2 = {PX_GPIO_ADC2};</v>
       </c>
       <c r="U40" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-      <c r="W40" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-      <c r="Y40" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-      <c r="AA40" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-      <c r="AC40" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-      <c r="AE40" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC2) \</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C4 PX_GPIO_ADC2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -4737,31 +3849,11 @@
         <v>static const px_gpio_handle_t px_gpio_adc1 = {PX_GPIO_ADC1};</v>
       </c>
       <c r="U41" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-      <c r="W41" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-      <c r="Y41" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-      <c r="AA41" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-      <c r="AC41" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-      <c r="AE41" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_ADC1) \</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C5 PX_GPIO_ADC1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -4823,31 +3915,11 @@
         <v>static const px_gpio_handle_t px_gpio_pwm_buzzer = {PX_GPIO_PWM_BUZZER};</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-      <c r="W42" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-      <c r="Y42" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-      <c r="AA42" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-      <c r="AC42" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-      <c r="AE42" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_PWM_BUZZER) \</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C6 PX_GPIO_PWM_BUZZER</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -4909,31 +3981,11 @@
         <v>static const px_gpio_handle_t px_gpio_vbat_meas_en = {PX_GPIO_VBAT_MEAS_EN};</v>
       </c>
       <c r="U43" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-      <c r="W43" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-      <c r="Y43" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-      <c r="AA43" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-      <c r="AC43" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-      <c r="AE43" s="3" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_VBAT_MEAS_EN) \</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C7 PX_GPIO_VBAT_MEAS_EN</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -4995,31 +4047,11 @@
         <v>static const px_gpio_handle_t px_gpio_3v3_hold = {PX_GPIO_3V3_HOLD};</v>
       </c>
       <c r="U44" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-      <c r="W44" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-      <c r="Y44" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-      <c r="AA44" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-      <c r="AC44" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-      <c r="AE44" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRH_INIT(",$A44,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRH_INIT(PX_GPIO_3V3_HOLD) \</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C8 PX_GPIO_3V3_HOLD</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>74</v>
       </c>
@@ -5081,33 +4113,13 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_6_yes = {PX_GPIO_LCD_BTN_6_YES};</v>
       </c>
       <c r="U45" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-      <c r="W45" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-      <c r="Y45" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-      <c r="AA45" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-      <c r="AC45" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-      <c r="AE45" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A45,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_6_YES) \</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C9 PX_GPIO_LCD_BTN_6_YES</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>64</v>
@@ -5167,33 +4179,13 @@
         <v>static const px_gpio_handle_t px_gpio_uart4_tx = {PX_GPIO_UART4_TX};</v>
       </c>
       <c r="U46" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-      <c r="W46" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-      <c r="Y46" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-      <c r="AA46" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-      <c r="AC46" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-      <c r="AE46" s="3" t="str">
-        <f t="shared" ref="AE46:AE50" si="30">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A46,") \")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART4_TX) \</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C10 PX_GPIO_UART4_TX</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>64</v>
@@ -5253,31 +4245,11 @@
         <v>static const px_gpio_handle_t px_gpio_uart4_rx = {PX_GPIO_UART4_RX};</v>
       </c>
       <c r="U47" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-      <c r="W47" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-      <c r="Y47" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-      <c r="AA47" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-      <c r="AC47" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-      <c r="AE47" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_UART4_RX) \</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C11 PX_GPIO_UART4_RX</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -5339,31 +4311,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_4_dn = {PX_GPIO_LCD_BTN_4_DN};</v>
       </c>
       <c r="U48" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-      <c r="W48" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-      <c r="Y48" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-      <c r="AA48" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-      <c r="AC48" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-      <c r="AE48" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_4_DN) \</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C12 PX_GPIO_LCD_BTN_4_DN</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
@@ -5425,31 +4377,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_3_up = {PX_GPIO_LCD_BTN_3_UP};</v>
       </c>
       <c r="U49" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-      <c r="W49" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-      <c r="Y49" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-      <c r="AA49" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-      <c r="AC49" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-      <c r="AE49" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_LCD_BTN_3_UP) \</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C13 PX_GPIO_LCD_BTN_3_UP</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>77</v>
       </c>
@@ -5511,31 +4443,11 @@
         <v>static const px_gpio_handle_t px_gpio_osc32_in = {PX_GPIO_OSC32_IN};</v>
       </c>
       <c r="U50" s="3" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-      <c r="W50" s="3" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-      <c r="Y50" s="3" t="str">
-        <f t="shared" si="26"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-      <c r="AA50" s="3" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-      <c r="AC50" s="3" t="str">
-        <f t="shared" si="28"/>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-      <c r="AE50" s="3" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_OSC32_IN) \</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C14 PX_GPIO_OSC32_IN</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
@@ -5597,31 +4509,11 @@
         <v>static const px_gpio_handle_t px_gpio_osc32_out = {PX_GPIO_OSC32_OUT};</v>
       </c>
       <c r="U51" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A51,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-      <c r="W51" s="3" t="str">
-        <f t="shared" ref="W51" si="31">CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A51,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-      <c r="Y51" s="3" t="str">
-        <f t="shared" ref="Y51" si="32">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A51,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-      <c r="AA51" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A51,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-      <c r="AC51" s="3" t="str">
-        <f t="shared" ref="AC51" si="33">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A51,")")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-      <c r="AE51" s="3" t="str">
-        <f t="shared" ref="AE51" si="34">CONCATENATE("    + PX_GPIO_REG_AFRH_INIT(",$A51,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRH_INIT(PX_GPIO_OSC32_OUT)</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_C15 PX_GPIO_OSC32_OUT</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -5638,26 +4530,8 @@
       <c r="N52" s="9"/>
       <c r="O52" s="10"/>
       <c r="P52" s="2"/>
-      <c r="U52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE52" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>81</v>
       </c>
@@ -5719,31 +4593,11 @@
         <v>static const px_gpio_handle_t px_gpio_spi1_cs_sd = {PX_GPIO_SPI1_CS_SD};</v>
       </c>
       <c r="U53" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A53,")")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-      <c r="W53" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A53,")")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-      <c r="Y53" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A53,")")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-      <c r="AA53" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A53,")")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-      <c r="AC53" s="3" t="str">
-        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A53,")")</f>
-        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-      <c r="AE53" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A53,")")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_SPI1_CS_SD)</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_D2 PX_GPIO_SPI1_CS_SD</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -5760,26 +4614,8 @@
       <c r="N54" s="9"/>
       <c r="O54" s="10"/>
       <c r="P54" s="2"/>
-      <c r="U54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE54" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -5841,31 +4677,11 @@
         <v>static const px_gpio_handle_t px_gpio_usr_led = {PX_GPIO_USR_LED};</v>
       </c>
       <c r="U55" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_MODER_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_MODER_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-      <c r="W55" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OTYPER_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OTYPER_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-      <c r="Y55" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_OSPEEDR_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-      <c r="AA55" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_PUPDR_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_PUPDR_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-      <c r="AC55" s="3" t="str">
-        <f>CONCATENATE("    PX_GPIO_REG_ODR_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">    PX_GPIO_REG_ODR_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-      <c r="AE55" s="3" t="str">
-        <f>CONCATENATE("      PX_GPIO_REG_AFRL_INIT(",$A55,") \")</f>
-        <v xml:space="preserve">      PX_GPIO_REG_AFRL_INIT(PX_GPIO_USR_LED) \</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>#define PX_GPIO_H0 PX_GPIO_USR_LED</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -5927,31 +4743,11 @@
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_2_rt = {PX_GPIO_LCD_BTN_2_RT};</v>
       </c>
       <c r="U56" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_MODER_INIT(",$A56,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_MODER_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-      <c r="W56" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_OTYPER_INIT(",$A56,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OTYPER_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-      <c r="Y56" s="3" t="str">
-        <f t="shared" ref="Y56" si="35">CONCATENATE("    + PX_GPIO_REG_OSPEEDR_INIT(",$A56,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_OSPEEDR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-      <c r="AA56" s="3" t="str">
-        <f>CONCATENATE("    + PX_GPIO_REG_PUPDR_INIT(",$A56,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_PUPDR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-      <c r="AC56" s="3" t="str">
-        <f t="shared" ref="AC56" si="36">CONCATENATE("  + PX_GPIO_REG_ODR_INIT(",$A56,")")</f>
-        <v xml:space="preserve">  + PX_GPIO_REG_ODR_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-      <c r="AE56" s="3" t="str">
-        <f t="shared" ref="AE56" si="37">CONCATENATE("    + PX_GPIO_REG_AFRL_INIT(",$A56,")")</f>
-        <v xml:space="preserve">    + PX_GPIO_REG_AFRL_INIT(PX_GPIO_LCD_BTN_2_RT)</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+        <f t="shared" ref="U56" si="3">CONCATENATE("#define PX_GPIO_",$B56,$C56," ",$A56)</f>
+        <v>#define PX_GPIO_H1 PX_GPIO_LCD_BTN_2_RT</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
